--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\UiPath\MarktoMarket1_RPA\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\MarktoMarket1_RPA\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F726F0-FF80-4E2D-BA00-FCB312010D1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1650" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="1650" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,13 +35,13 @@
     <t>Planilla asientos</t>
   </si>
   <si>
-    <t>C:\bloombergs\Plantilla_asiento _v2.xlsx</t>
+    <t>C:\blp\data\Bot\Plantilla_asiento.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,14 +352,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nombre</t>
   </si>
@@ -35,7 +35,19 @@
     <t>Planilla asientos</t>
   </si>
   <si>
+    <t>Planilla forward</t>
+  </si>
+  <si>
+    <t>Ruta Base</t>
+  </si>
+  <si>
     <t>C:\blp\data\Bot\Plantilla_asiento.xlsx</t>
+  </si>
+  <si>
+    <t>C:\blp\data\Bot\forward.xlsx</t>
+  </si>
+  <si>
+    <t>C:\blp\data\Bot\</t>
   </si>
 </sst>
 </file>
@@ -353,16 +365,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -378,7 +390,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>nombre</t>
   </si>
@@ -48,6 +48,30 @@
   </si>
   <si>
     <t>C:\blp\data\Bot\</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>Total ABS</t>
+  </si>
+  <si>
+    <t>Total Real</t>
+  </si>
+  <si>
+    <t>Mov SAP</t>
+  </si>
+  <si>
+    <t>Corto o Largo Plazo</t>
+  </si>
+  <si>
+    <t>Asiento Actual</t>
   </si>
 </sst>
 </file>
@@ -365,19 +389,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,7 +411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -393,7 +419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -401,12 +427,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\MarktoMarket1_RPA\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\UiPath\MarktoMarket1_RPA\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE2CC26-6FEB-4259-B3D0-85398EDAC9FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1650" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,15 +42,6 @@
     <t>Ruta Base</t>
   </si>
   <si>
-    <t>C:\blp\data\Bot\Plantilla_asiento.xlsx</t>
-  </si>
-  <si>
-    <t>C:\blp\data\Bot\forward.xlsx</t>
-  </si>
-  <si>
-    <t>C:\blp\data\Bot\</t>
-  </si>
-  <si>
     <t>header</t>
   </si>
   <si>
@@ -72,12 +64,21 @@
   </si>
   <si>
     <t>Asiento Actual</t>
+  </si>
+  <si>
+    <t>C:\Users\rodri\Desktop\botbloomberg\Plantilla_asiento.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\rodri\Desktop\botbloomberg\forward.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\rodri\Desktop\botbloomberg\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,14 +389,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
@@ -416,7 +417,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -424,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -432,33 +433,33 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\UiPath\MarktoMarket1_RPA\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE2CC26-6FEB-4259-B3D0-85398EDAC9FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C50CD3-7C27-4788-ABE4-DC74343C6B9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>nombre</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Cuenta</t>
-  </si>
-  <si>
-    <t>Total ABS</t>
   </si>
   <si>
     <t>Total Real</t>
@@ -390,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +401,7 @@
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,31 +409,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -457,9 +454,6 @@
       </c>
       <c r="G5" t="s">
         <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\UiPath\MarktoMarket1_RPA\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\MarktoMarket1_RPA\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C50CD3-7C27-4788-ABE4-DC74343C6B9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -63,19 +62,19 @@
     <t>Asiento Actual</t>
   </si>
   <si>
-    <t>C:\Users\rodri\Desktop\botbloomberg\Plantilla_asiento.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\rodri\Desktop\botbloomberg\forward.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\rodri\Desktop\botbloomberg\</t>
+    <t>C:\blp\data\Bot\Plantilla_asiento.xlsx</t>
+  </si>
+  <si>
+    <t>C:\blp\data\Bot\forward.xlsx</t>
+  </si>
+  <si>
+    <t>C:\blp\data\Bot\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,14 +385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
